--- a/SiriusInformatics.xlsx
+++ b/SiriusInformatics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\andrey\SiriusInformatics2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\andrey\SiriusInformatics2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D46195D9-B751-40F7-B6B6-DFCCEBDEE001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B06CBA-360A-455F-B4E3-D9AD4C9D4CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12196" xr2:uid="{9B111D33-7DB4-466B-8C50-BEFDF074B2E7}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{9B111D33-7DB4-466B-8C50-BEFDF074B2E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>3 4 1 2 4 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t>ax + by = d</t>
+  </si>
+  <si>
+    <t>Известные x1, y1</t>
+  </si>
+  <si>
+    <t>x, y - ?</t>
+  </si>
+  <si>
+    <t>bx1 + (a % b)y1 = d</t>
+  </si>
+  <si>
+    <t>Решение:</t>
+  </si>
+  <si>
+    <t>[] - взятие целой части</t>
+  </si>
+  <si>
+    <t>a % b = a - [a/b]b</t>
+  </si>
+  <si>
+    <t>bx1 + (a - [a/b]b)y1 = d</t>
+  </si>
+  <si>
+    <t>bx1 + ay1 - [a/b]by1 = d</t>
+  </si>
+  <si>
+    <t>ay1 + b(x1 - [a/b]y1) = d</t>
+  </si>
+  <si>
+    <t>`=&gt;`</t>
+  </si>
+  <si>
+    <t>x = y1</t>
+  </si>
+  <si>
+    <t>y = x1 - [a/b]y1</t>
   </si>
 </sst>
 </file>
@@ -53,13 +89,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,18 +96,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,17 +122,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,27 +443,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E41D54B-7D48-4A71-BDF4-73D136F1E88B}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="2">
-        <v>341242</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B3">
-        <v>314242</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
